--- a/DPUE/check/dpue_check.xlsx
+++ b/DPUE/check/dpue_check.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wurnet.nl\homes\verke021\my documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICES_WG\wg_IBPTur.27.4\DPUE\check\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="8">
   <si>
     <t>year.x</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>obs</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -372,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,6 +520,15 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
       <c r="H10">
         <v>2008</v>
       </c>
@@ -529,8 +541,26 @@
       <c r="K10" t="s">
         <v>5</v>
       </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H11">
         <v>2009</v>
       </c>
@@ -542,6 +572,15 @@
       </c>
       <c r="K11" t="s">
         <v>5</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -557,6 +596,24 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
+      <c r="E12" s="2">
+        <v>3.4317356632851397E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3.4317356632851397E-2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>9</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -571,6 +628,24 @@
       <c r="D13" t="s">
         <v>4</v>
       </c>
+      <c r="E13" s="2">
+        <v>0.36458389504792599</v>
+      </c>
+      <c r="F13" s="2">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.36458389504792599</v>
+      </c>
+      <c r="M13" s="2">
+        <v>13</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -585,6 +660,15 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
+      <c r="E14" s="2">
+        <v>0.356070747855182</v>
+      </c>
+      <c r="F14" s="2">
+        <v>19</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H14">
         <v>2012</v>
       </c>
@@ -596,6 +680,15 @@
       </c>
       <c r="K14" t="s">
         <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.356070747855182</v>
+      </c>
+      <c r="M14" s="2">
+        <v>19</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
